--- a/biology/Zoologie/Equus_(genre)/Equus_(genre).xlsx
+++ b/biology/Zoologie/Equus_(genre)/Equus_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Equus est un genre de mammifères de la famille des Équidés, qui comprend les ânes, les chevaux et les zèbres.
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,9 +553,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Mammal Species of the World (version 3, 2005)  (9 avril 2018)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Mammal Species of the World (version 3, 2005)  (9 avril 2018) :
 Equus asinus Linnaeus, 1758 — Âne
 Equus asinus asinus (Linnaeus, 1758) — Âne domestique
 Equus asinus africanus (Fitzinger, 1857) — Âne sauvage d'Afrique
@@ -562,11 +578,11 @@
 † Equus caballus ferus Linnaeus, 1758 — Cheval sauvage ou Tarpan
 Equus caballus przewalskii Linnaeus, 1758 — Cheval de Przewalski ou Takh
 † Equus scotti Gidley, 1900
-† Equus stenonis Cocchi, 1867 ou Equus Sussemionus stenonis Eisenmann,  2010[3],[4]
-† Equus coliemensis Lazarev, 1980 ou Equus Sussemionus coliemensis Eisenmann,  2010[3],[4]
-† Equus suessenbornensis Wüst, 1901 ou Equus Sussemionus suessenbornensis Eisenmann,  2010[3],[4]
+† Equus stenonis Cocchi, 1867 ou Equus Sussemionus stenonis Eisenmann,  2010,
+† Equus coliemensis Lazarev, 1980 ou Equus Sussemionus coliemensis Eisenmann,  2010,
+† Equus suessenbornensis Wüst, 1901 ou Equus Sussemionus suessenbornensis Eisenmann,  2010,
 Equus grevyi Oustalet, 1882 — Zèbre de Grévy ou Zèbre impérial
-Equus quagga  Boddaert, 1785 (anciennement Equus burchellii (Gray, 1824)) — Zèbre des plaines ou Zèbre de Burchell[5]
+Equus quagga  Boddaert, 1785 (anciennement Equus burchellii (Gray, 1824)) — Zèbre des plaines ou Zèbre de Burchell
 † Equus quagga quagga Boddaert, 1785 — Quagga ou Couagga
 Equus quagga burchellii Gray, 1824 — Zèbre de Burchell
 Equus quagga boehmi Matschie, 1892 — Zèbre de Grant ou Zèbre de Böhm
@@ -611,7 +627,9 @@
           <t>Répartition géographique actuelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-genre Equus 
 			Cheval de Przewalski
@@ -651,7 +669,9 @@
           <t>Particularités anatomiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n'existe des gonadotropines chorioniques que chez les primates et chez les équidés (chez la jument, il s'agit de la eCG (equine CG) autrefois dénommée PMSG (Pregnant Mare Serum Gonadotropin))[réf. nécessaire].
 </t>
